--- a/2019_dkp/2019_12_29_dkp.xlsx
+++ b/2019_dkp/2019_12_29_dkp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\game\wow_dkp\2019_dkp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C572068-2E39-4467-A30A-E9380C7160BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BCA07E4-C304-4668-9A7F-1D115B76767D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -666,10 +666,10 @@
   <dimension ref="B1:P65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="L60" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="L18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q65" sqref="Q65"/>
+      <selection pane="bottomRight" activeCell="O38" sqref="O38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1877,16 +1877,18 @@
       <c r="I39" s="8"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
-      <c r="L39" s="7"/>
+      <c r="L39" s="7">
+        <v>6</v>
+      </c>
       <c r="M39" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N39" s="8"/>
       <c r="O39" s="5"/>
       <c r="P39" s="9">
         <f t="shared" si="2"/>
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.2">
@@ -2519,18 +2521,16 @@
       <c r="I59" s="8"/>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
-      <c r="L59" s="7">
-        <v>6</v>
-      </c>
+      <c r="L59" s="7"/>
       <c r="M59" s="7">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N59" s="8"/>
       <c r="O59" s="5"/>
       <c r="P59" s="9">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="2:16" x14ac:dyDescent="0.2">

--- a/2019_dkp/2019_12_29_dkp.xlsx
+++ b/2019_dkp/2019_12_29_dkp.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\game\wow_dkp\2019_dkp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Blizzard\World of Warcraft\wow_dkp\2019_dkp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BCA07E4-C304-4668-9A7F-1D115B76767D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45438BB2-598B-4CBB-A11B-D719761A4652}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="375" yWindow="375" windowWidth="16200" windowHeight="11880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dkp" sheetId="1" r:id="rId1"/>
@@ -666,10 +666,10 @@
   <dimension ref="B1:P65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="L18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O38" sqref="O38"/>
+      <selection pane="bottomRight" activeCell="R7" activeCellId="1" sqref="L7 R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -853,16 +853,18 @@
       <c r="I7" s="8"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
-      <c r="L7" s="7"/>
+      <c r="L7" s="7">
+        <v>5</v>
+      </c>
       <c r="M7" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N7" s="8"/>
       <c r="O7" s="5"/>
       <c r="P7" s="9">
         <f t="shared" si="2"/>
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.2">
@@ -1783,18 +1785,16 @@
       <c r="I36" s="8"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
-      <c r="L36" s="7">
-        <v>5</v>
-      </c>
+      <c r="L36" s="7"/>
       <c r="M36" s="7">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N36" s="8"/>
       <c r="O36" s="5"/>
       <c r="P36" s="9">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.2">
